--- a/biology/Zoologie/Jardin_zoologique_de_Straubing/Jardin_zoologique_de_Straubing.xlsx
+++ b/biology/Zoologie/Jardin_zoologique_de_Straubing/Jardin_zoologique_de_Straubing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin zoologique de Straubing (en allemand : Tiergarten Straubing) est le zoo de la ville de Straubing en Basse-Bavière. Il est situé à l'ouest de la ville sur un terrain boisé. Son « Danubium » est un biotope près du Danube où l'on trouve des espèces indigènes. Dans le « Donauaquarium » on peut suivre le cours du fleuve de la source à l'embouchure. À proximité une farme néolithique a été reconstituée. À la suite du regroupement des enclos les ours bruns, les tigres de Sibérie et les animaux de savane africaine ont gagné en espace.
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Site officiel du Jardin zoologique de Straubing
 Sur les autres projets Wikimedia :
